--- a/data/financial_statements/soci/IVZ.xlsx
+++ b/data/financial_statements/soci/IVZ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,929 +602,950 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1443400000</v>
+      </c>
+      <c r="C2">
         <v>1445700000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1530400000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1629400000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1763400000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1750000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1721400000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1659700000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1630100000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1497600000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1419000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1598900000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1742800000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1720600000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1439400000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1214600000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1255900000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1341800000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1360600000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1355800000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1375600000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1337700000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1254400000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1192600000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1194700000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1201600000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1189400000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1148700000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1239700000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1273500000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1318100000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1291600000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1276700000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1311000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1289900000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1269500000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1225100000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1171800000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1135500000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1112200000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>-0.1815</v>
+      </c>
+      <c r="C3">
         <v>-0.1739</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.111</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.0183</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0818</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1685</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2131</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.038</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.06469999999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1296</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0142</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.3164</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.3877</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.2823</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0579</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.1041</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-0.08699999999999999</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0031</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0847</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1368</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1514</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1133</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0546</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0382</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0363</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.0565</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.09760000000000001</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.1106</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.029</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0286</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0219</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0174</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0421</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.1188</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.136</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.1414</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.1999</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.1557</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.1565</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0759</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>447300000</v>
+      </c>
+      <c r="C4">
         <v>451300000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>475000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>512600000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>540500100</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>546400000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>539600000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>522800000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>507700100</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>480800000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>444000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>515100000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>528100000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>545100000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>451800000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>368000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>372199900</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>408000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>408900000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>419100000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>390900000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>380400000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>365900000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>349300000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>349499900</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>362100000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>348400000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>347200000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>375200100</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>392300000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>413300000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>399100000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>394500000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>420200000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>410600000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>405400000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>396199900</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>380900000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>366000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>346100000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>996100000</v>
+      </c>
+      <c r="C5">
         <v>994400000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1055400000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1116800000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1222900000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1203600000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1181800000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1136900000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1122400000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1016800000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>975000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1083800000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1214700000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1175500000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>987600000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>846600000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>883700200</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>933800000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>951700000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>936700100</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>984699800</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>957299900</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>888500000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>843300000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>845200000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>839500000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>841000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>801499900</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>864499800</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>881200000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>904800000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>892500000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>882200200</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>890800000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>879300000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>864100000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>828900100</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>790900000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>769500000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>766100000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>745200000</v>
+      </c>
+      <c r="C6">
         <v>630300000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>695700000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>688800000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>750900200</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>736200000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>742000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>730900000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>729499900</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>677300000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>786200000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>691300000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>763600200</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>714900000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>664400000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>600300000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>591500000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>578600000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>596900000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>597100000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>540300000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>597000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>570200000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>585400000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>506000200</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>533200000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>539500000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>527100000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>560900000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>528500000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>540800000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>554400000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>534000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>561200000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>524500000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>619800000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>535600000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>504900000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>493800000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>497700000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>245100100</v>
+      </c>
+      <c r="C7">
         <v>350200000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>344700100</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>377700100</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>509199800</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>463800000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>470900000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>344299900</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>217800300</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>268499900</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>117100000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>317000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>314599700</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>275100000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>18300100</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>200200000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>230399900</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>322100100</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>331299900</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>321100100</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>342599900</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>360299900</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>318300000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>257900000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>270200000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>306300000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>301500000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>274400000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>303599900</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>352700000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>364000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>338100000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>348200400</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>329600000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>354800000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>244300000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>293300200</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>286000100</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>273900000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>266999900</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>17600000</v>
+      </c>
+      <c r="C8">
         <v>18600000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>25800000</v>
-      </c>
-      <c r="D8">
-        <v>23200000</v>
       </c>
       <c r="E8">
         <v>23200000</v>
       </c>
       <c r="F8">
+        <v>23200000</v>
+      </c>
+      <c r="G8">
         <v>23100000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>24600000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>23800000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>24400000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>33800000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>34800000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>36300000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>34600000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>35000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>33000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>33100000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>29200000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>29600000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>29500000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>23200000</v>
-      </c>
-      <c r="U8">
-        <v>23600000</v>
       </c>
       <c r="V8">
         <v>23600000</v>
@@ -1419,548 +1554,563 @@
         <v>23600000</v>
       </c>
       <c r="X8">
+        <v>23600000</v>
+      </c>
+      <c r="Y8">
         <v>24000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>23500000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>23900000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>22100000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>23900000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>23000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>20400000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>19600000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>18700000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-80000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>55600000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>48500000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>49000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>41700000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>43200000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>40600000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>42400000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>145300000</v>
+      </c>
+      <c r="C9">
         <v>-95100000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-62800000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-57400000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>178600000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>221500000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>178400000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>133800000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>181900000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>118100000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-11700000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-139600000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>8400000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>41500000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>58200000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>56600000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-82400000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>20200000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-17100000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>12500000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>56800000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>37400000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>23900000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>32000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>40800000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>39400000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>18700000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-44700000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-21900000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-11000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-10600000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>47200000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-21600000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>17500000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>68800000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>53500000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>45300000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>57000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>17900000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>14800000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>390400000</v>
+      </c>
+      <c r="C10">
         <v>255100000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>281900000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>320300000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>687799900</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>685300000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>649300000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>478100000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>399700000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>386600000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>105400000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>177400000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>323000100</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>316600000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>76500000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>256800000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>148000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>342300000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>314200000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>333600000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>399400000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>397700000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>342200000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>289900000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>310999900</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>345700000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>320200000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>229700000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>281700000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>341700000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>353400000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>385300000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>326600000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>347100000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>423600000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>297800000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>338600000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>343000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>291800000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>281800000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>89600000</v>
+      </c>
+      <c r="C11">
         <v>86800000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>63000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>82800000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>130700000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>139700000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>154200000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>106500000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>68900000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>91900000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>43400000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>57400000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>80400000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>74000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>14500000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>66200000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>53200000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>61100000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>72300000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>68400000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-23200000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>123100000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>92600000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>75700000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>92900000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>89800000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>83700000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>71900000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>86900000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>100400000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>109400000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>101300000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>99700000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>94900000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>107000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>89000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>74200000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>92900000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>83500000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>86300000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>300800000</v>
+      </c>
+      <c r="C12">
         <v>168300000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>218900000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>237500000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>557100100</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>545600000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>495100000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>371600000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>330800000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>294700000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>62000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>120000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>242600100</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>242600000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>62000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>190600000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>94800000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>281200000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>241900000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>265200000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>422600000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>274600000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>249600000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>214200000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>218100000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>255900000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>236500000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>157800000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>194799900</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>241300000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>244000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>284000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>226900000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>252200000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>316600000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>208800000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>264400000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>250100000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>208300000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>195500000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>59200000</v>
@@ -1999,70 +2149,70 @@
         <v>59200000</v>
       </c>
       <c r="N13">
+        <v>59200000</v>
+      </c>
+      <c r="O13">
         <v>64400000</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>26900000</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>20100000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>7200000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>6400000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>6600000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>7300000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>6700000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>4200000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>5000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>6300000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>6600000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>6700000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>13700000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>6900000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>7600000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>32100000</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -2070,2653 +2220,2707 @@
       <c r="AN13">
         <v>0</v>
       </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>53800000</v>
+      </c>
+      <c r="C14">
         <v>-68300000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>38700000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-19400000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>71100000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>156300000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>67600000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>44600000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>60500000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>43800000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-37700000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-20700000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3600000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>11100000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>21900000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>12900000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-19400000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>11600000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-3200000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>11300000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>14400000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>7100000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>10000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2200000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-8400000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>14700000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>11000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-3200000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-7100000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-8000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-13300000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>24400000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-43900000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-4400000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>42300000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>19000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>43400000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>20600000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1100000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-22600000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>187800000</v>
+      </c>
+      <c r="C15">
         <v>177400000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>121000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>197700000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>426800000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>330100000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>368300000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>267800000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>211100000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>191700000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>40500000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>81500000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>179800000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>167100000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>40100000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>177700000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>114200000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>269600000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>245100000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>253900000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>421800000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>267500000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>232400000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>205600000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>219900000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>233900000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>218800000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>156800000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>196900000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>243000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>250700000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>252900000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>256100000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>249100000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>266900000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>187800000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>255300000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>228100000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>202600000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>222200000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>0.39</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.27</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.43</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.92</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.71</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.8</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.58</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.46</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.42</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.09</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.18</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.4</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.36</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.09</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.44</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.28</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.65</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.59</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.62</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.65</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.58</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.52</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>0.55</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.58</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.54</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.38</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.48</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.58</v>
-      </c>
-      <c r="AE16">
-        <v>0.6</v>
       </c>
       <c r="AF16">
         <v>0.6</v>
       </c>
       <c r="AG16">
+        <v>0.6</v>
+      </c>
+      <c r="AH16">
         <v>0.62</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.59</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.63</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.43</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.65</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.51</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.45</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>0.39</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.26</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.43</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.92</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.71</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.79</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.58</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.46</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.41</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.09</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.18</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.39</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.36</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.09</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.44</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.28</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.65</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.59</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.62</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.99</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.65</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.58</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.52</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.55</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.58</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.54</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.38</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.48</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.58</v>
-      </c>
-      <c r="AE17">
-        <v>0.6</v>
       </c>
       <c r="AF17">
         <v>0.6</v>
       </c>
       <c r="AG17">
+        <v>0.6</v>
+      </c>
+      <c r="AH17">
         <v>0.62</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.59</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.63</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.43</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.64</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.51</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.45</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.49</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>457000000</v>
       </c>
       <c r="C18">
+        <v>457000000</v>
+      </c>
+      <c r="D18">
         <v>456500000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>459500000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>462800000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>463300000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>462800000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>461600000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>459500000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>461100000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>460100000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>455700000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>437800000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>462800000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>431600000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>401600000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>412400000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>414300000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>413900000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>411300000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>409400000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>410000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>397500000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>395500000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>402600000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>400200000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>406400000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>407700000</v>
-      </c>
-      <c r="AC18">
-        <v>418000000</v>
       </c>
       <c r="AD18">
         <v>418000000</v>
       </c>
       <c r="AE18">
-        <v>420900000</v>
+        <v>418000000</v>
       </c>
       <c r="AF18">
         <v>420900000</v>
       </c>
       <c r="AG18">
-        <v>422600000</v>
+        <v>420900000</v>
       </c>
       <c r="AH18">
         <v>422600000</v>
       </c>
       <c r="AI18">
+        <v>422600000</v>
+      </c>
+      <c r="AJ18">
         <v>423700000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>436800000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>432200000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>447900000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>449100000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>447800000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>459500000</v>
+        <v>459100000</v>
       </c>
       <c r="C19">
         <v>459500000</v>
       </c>
       <c r="D19">
+        <v>459500000</v>
+      </c>
+      <c r="E19">
         <v>462400000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>465400000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>466000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>466200000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>464700000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>462500000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>463500000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>463100000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>458900000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>440500000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>466900000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>433800000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>401900000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>412500000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>414400000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>414100000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>411800000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>409900000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>410500000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>397900000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>395800000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>402900000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>400500000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>406600000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>407900000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>418400000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>418300000</v>
-      </c>
-      <c r="AE19">
-        <v>421200000</v>
       </c>
       <c r="AF19">
         <v>421200000</v>
       </c>
       <c r="AG19">
+        <v>421200000</v>
+      </c>
+      <c r="AH19">
         <v>423200000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>423100000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>424400000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>437400000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>433200000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>448800000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>450100000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>449000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.6901</v>
+      </c>
+      <c r="C20">
         <v>0.6878</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.6896</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.6854</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.6935</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.6878</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.6865</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.6850000000000001</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.6885</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.679</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.6871</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.6778</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.697</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.6832</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.6861</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.697</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.7036</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.6959</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.6995</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.6909</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.7158</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.7156</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.7083</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.7071</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.7075</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.6987</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.7071</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.6977</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.6973</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.6919999999999999</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.6864</v>
-      </c>
-      <c r="AF20">
-        <v>0.6909999999999999</v>
       </c>
       <c r="AG20">
         <v>0.6909999999999999</v>
       </c>
       <c r="AH20">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="AI20">
         <v>0.6795</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.6817</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.6807</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.6766</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.6749000000000001</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.6777</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.6888</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1698</v>
+      </c>
+      <c r="C21">
         <v>0.2422</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2252</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2318</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2888</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.265</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2736</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.2074</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.1336</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1793</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.0825</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1983</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1805</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.1599</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.0127</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.1648</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1835</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2401</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2435</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2368</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.2491</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2693</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2537</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2163</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2262</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.2549</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2535</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2389</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2449</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.277</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2762</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.2618</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.2727</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2514</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2751</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.1924</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.2394</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2441</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2412</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2401</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.2705</v>
+      </c>
+      <c r="C22">
         <v>0.1765</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.1842</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1966</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.39</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.3916</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.3772</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2881</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.2452</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2581</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.0743</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.111</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1853</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.184</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.0531</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2114</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1178</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2551</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2309</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2461</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2903</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2973</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2728</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2431</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2603</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2877</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.2692</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2272</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2683</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2681</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2983</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.2558</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2648</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.3284</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.2346</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.2764</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2927</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.257</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.2534</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.1301</v>
+      </c>
+      <c r="C23">
         <v>0.1227</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.0791</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1213</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.242</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1886</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.214</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1614</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.1295</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.128</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.0285</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.051</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1032</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.09710000000000001</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.0279</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1463</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.09089999999999999</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.2009</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1801</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1873</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.3066</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.2</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1853</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.1724</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1841</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.1947</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.184</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1365</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1588</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1908</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1902</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1958</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.2006</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.19</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.2069</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1479</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.2084</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.1947</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.1784</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.1998</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>398099900</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>394000100</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>427200100</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>559599900</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>514800000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>523700000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>395399900</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>271000300</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>320099900</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>167400000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>365400000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>367099700</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>323600000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>58600100</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>236500000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>266899900</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>361700100</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>363699900</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>354700100</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>377199900</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>389999900</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>344500100</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>284200000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>295900000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>331900000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>326700000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>299100000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>328599900</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>375300000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>387300000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>360800000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>370200400</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>351200000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>377200000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>267700000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>315700200</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>307800000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>295800000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>289299900</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>245100100</v>
+      </c>
+      <c r="C25">
         <v>350200000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>344700100</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>377700100</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>509199700</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>463800000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>470900000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>344299900</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>217800500</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>268499900</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>117100000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>317000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>314599700</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>275100000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>18300100</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>200200000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>230399800</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>322100100</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>331299900</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>321100100</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>342599900</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>360299900</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>318300000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>257900000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>270200000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>306300000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>301500000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>274400000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>303599900</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>352700000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>364000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>338100000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>348200100</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>329600000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>354800000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>244300000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>293300000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>286000100</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>273900000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>266999900</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>300800000</v>
+      </c>
+      <c r="C26">
         <v>168300000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>218900000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>237500000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>557100100</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>545600000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>495100000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>371600000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>330800000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>294700000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>62000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>120000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>242600100</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>242600000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>62000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>190600000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>94800000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>281200000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>241900000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>265200000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>422600000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>274600000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>249600000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>214200000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>218100000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>255900000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>236500000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>157800000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>194799900</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>241300000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>244000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>284000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>226900000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>252200000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>316600000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>208800000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>264400000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>250100000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>208300000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>195500000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH27">
         <v>-1000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-600000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>200000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-2000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>66400000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-1400000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-4600000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>4100000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>300800000</v>
+      </c>
+      <c r="C28">
         <v>168300000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>218900000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>237500000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>557100100</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>545600000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>495100000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>371600000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>330800000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>294700000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>62000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>120000000</v>
-      </c>
-      <c r="M28">
-        <v>242600000</v>
       </c>
       <c r="N28">
         <v>242600000</v>
       </c>
       <c r="O28">
+        <v>242600000</v>
+      </c>
+      <c r="P28">
         <v>62000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>190600000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>94800000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>281200000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>241900000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>265200000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>422600000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>274600000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>249600000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>214200000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>218100000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>255900000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>236500000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>157800000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>194800000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>241300000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>244000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>284000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>225900000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>251600000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>316800000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>206800000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>330800000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>248700000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>203700000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>199600000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>0.6582</v>
+      </c>
+      <c r="C29">
         <v>0.3683</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.4795</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.5169</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.2029</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.1776</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.0698</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.805</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.7201</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.6391</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.1348</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.2633</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.5427999999999999</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.5242</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.1437</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.4746</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.2334</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.6787</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.5844</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.6448</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.9966</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.6698</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.6279</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.5416</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.5483</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.6394</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.5819</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.387</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.4747</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.5773</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.5797</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.6747</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.63</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.59</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.63</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.43</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.5</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.51</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.46</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.49</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0.6552</v>
+      </c>
+      <c r="C30">
         <v>0.3663</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.4764</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.5135999999999999</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.1992</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.1708</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.062</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.7997</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.7148</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.6358</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.1339</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.2615</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.5381</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.5196</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.1429</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.4742</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.2341</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.6786</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.5842000000000001</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.644</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.995</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.6689000000000001</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.6273</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.5412</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.5477</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.639</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.5817</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.3869</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.4738</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.5769</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.5793</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.6743</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.63</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.59</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.63</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.43</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.49</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.51</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.46</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.49</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH31">
         <v>-0.0045</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-0.0014</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.0005</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-0.0046</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.1431</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-0.0031</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-0.01</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH32">
         <v>-0.0045</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-0.0014</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.0005</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-0.0046</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.1431</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-0.0031</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-0.01</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0.6582</v>
+      </c>
+      <c r="C33">
         <v>0.3683</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.4795</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.5169</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.2029</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1.1776</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1.0698</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.805</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.7201</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.6391</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.1348</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.2633</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.5427999999999999</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.5242</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.1437</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.4746</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.2334</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.6787</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.5844</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.6448</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.9966</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.6698</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.6279</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.5416</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.5483</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.6394</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.5819</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.387</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.4747</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.5773</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.5797</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.6747</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.5524</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.5954</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.7477</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.4734</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.8194</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.5553</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.4536</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.4457</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0.6552</v>
+      </c>
+      <c r="C34">
         <v>0.3663</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.4764</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.5135999999999999</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.1992</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1.1708</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1.062</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.7997</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.7148</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.6358</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.1339</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.2615</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.5381</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.5196</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.1429</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.4742</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.2341</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.6786</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.5842000000000001</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.644</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.995</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.6689000000000001</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.6273</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.5412</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.5477</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.639</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.5817</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.3869</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.4738</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.5769</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.5793</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.6743</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.5516</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.5947</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.7465000000000001</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.4728</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.8174</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.5541</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.4526</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.4445</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>459500000</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C35">
         <v>459500000</v>
       </c>
       <c r="D35">
+        <v>459500000</v>
+      </c>
+      <c r="E35">
         <v>462400000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>465600000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>466000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>466200000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>464700000</v>
-      </c>
-      <c r="I35">
-        <v>463500000</v>
       </c>
       <c r="J35">
         <v>463500000</v>
       </c>
       <c r="K35">
+        <v>463500000</v>
+      </c>
+      <c r="L35">
         <v>463100000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>458900000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>457900000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>466900000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>433800000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>401900000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>410100000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>414400000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>414100000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>411800000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>410600000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>410500000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>410300000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>408000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>409000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>412900000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>419100000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>418900000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>420625000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>429100000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>432200000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>432500000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>433600000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>434800000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>436400000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>437400000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>445900000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>448800000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>450100000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>449000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>0.2754</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.2574</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.2622</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.3173</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.2942</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.3042</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.2382</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.1662</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.2137</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.118</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0.2285</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.2106</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>0.1881</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.0407</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.1947</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.2125</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.2696</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.2673</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>0.2616</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.2742</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.2915</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.2746</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>0.2383</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>0.2477</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>0.2762</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>0.2747</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>0.2604</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>0.2651</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>0.2947</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>0.2938</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>0.2793</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>0.29</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>0.2679</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>0.2924</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>0.2109</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>0.2577</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>0.2627</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>0.2605</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>0.2601</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>0.3163</v>
+      </c>
+      <c r="C37">
         <v>0.3403</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.0804</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-0.2304</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.0021</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.3434</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.2949</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-0.0162</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.3482</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.2683</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.2381</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>-0.0482</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.2567</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.1871</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.325</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>-0.09909999999999999</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.1327</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.1977</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.33</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>-0.0385</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.2797</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.2914</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.2046</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.1061</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.0604</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.3064</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>0.2067</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>-0.028</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.462</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.0762</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>0.3906</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>-0.0436</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0.1433</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.3563</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.5966</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>-0.1727</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.1553</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>0.2853</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.6519</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>-0.4357</v>
       </c>
     </row>
